--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3637.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3637.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3637</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>David Andrew Warner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2918</t>
+          <t>2918</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2924</t>
+          <t>2924</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2926</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2930</t>
+          <t>2930</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2933</t>
+          <t>2933</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2938</t>
+          <t>2938</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3006</t>
+          <t>3006</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3339</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3344</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3347</t>
+          <t>3347</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3371</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3377</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3384</t>
+          <t>3384</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3389</t>
+          <t>3389</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3391</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3392</t>
+          <t>3392</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3393</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1596,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1648,7 +1713,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1700,7 +1765,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1752,7 +1817,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3404</t>
+          <t>3404</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1804,7 +1869,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3405</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1844,7 +1909,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3416</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3417</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3418</t>
+          <t>3418</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3423</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3426</t>
+          <t>3426</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3462</t>
+          <t>3462</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3465</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2424,7 +2488,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3467</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2476,7 +2540,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2528,7 +2592,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2580,7 +2644,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2632,7 +2696,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2684,7 +2748,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2736,7 +2800,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2788,7 +2852,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2840,7 +2904,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2892,7 +2956,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2944,7 +3008,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2996,7 +3060,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3048,7 +3112,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3100,7 +3164,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3152,7 +3216,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3192,7 +3256,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -3200,7 +3263,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3252,7 +3315,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3304,7 +3367,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3356,7 +3419,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3408,7 +3471,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3460,7 +3523,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3779</t>
+          <t>3779</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3512,7 +3575,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3787</t>
+          <t>3787</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3564,7 +3627,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3616,7 +3679,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3668,7 +3731,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3720,7 +3783,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3829</t>
+          <t>3829</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3772,7 +3835,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3824,7 +3887,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3876,7 +3939,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3928,7 +3991,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3980,7 +4043,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4032,7 +4095,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4084,7 +4147,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3886</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4136,7 +4199,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3888</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4188,7 +4251,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4240,7 +4303,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4292,7 +4355,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4344,7 +4407,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3923</t>
+          <t>3923</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4396,7 +4459,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4448,7 +4511,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3927</t>
+          <t>3927</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4500,7 +4563,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3929</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4552,7 +4615,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4604,7 +4667,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3937</t>
+          <t>3937</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4656,7 +4719,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4708,7 +4771,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4760,7 +4823,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4812,7 +4875,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4864,7 +4927,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4916,7 +4979,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4968,7 +5031,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5020,7 +5083,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5072,7 +5135,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3972</t>
+          <t>3972</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5124,7 +5187,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3973</t>
+          <t>3973</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5176,7 +5239,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3975</t>
+          <t>3975</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5228,7 +5291,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3977</t>
+          <t>3977</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5280,7 +5343,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3981</t>
+          <t>3981</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5332,7 +5395,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5384,7 +5447,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4035</t>
+          <t>4035</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5436,7 +5499,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5488,7 +5551,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5540,7 +5603,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5592,7 +5655,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5644,7 +5707,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5696,7 +5759,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5748,7 +5811,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5800,7 +5863,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5852,7 +5915,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5904,7 +5967,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5956,7 +6019,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6008,7 +6071,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4306</t>
+          <t>4306</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6060,7 +6123,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4312</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6112,7 +6175,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4316</t>
+          <t>4316</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6164,7 +6227,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6216,7 +6279,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6268,7 +6331,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4329</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6320,7 +6383,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6372,7 +6435,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6424,7 +6487,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6476,7 +6539,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6528,7 +6591,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6580,7 +6643,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6632,7 +6695,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4400</t>
+          <t>4400</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6684,7 +6747,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4415</t>
+          <t>4415</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6736,7 +6799,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4419</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6788,7 +6851,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6840,7 +6903,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6892,7 +6955,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6944,7 +7007,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6996,7 +7059,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7048,7 +7111,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4435</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7100,7 +7163,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4436</t>
+          <t>4436</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7152,7 +7215,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4594</t>
+          <t>4594</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7204,7 +7267,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7256,7 +7319,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7308,7 +7371,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7360,7 +7423,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7412,7 +7475,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4644</t>
+          <t>4644</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7464,7 +7527,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4645</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7516,7 +7579,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4646</t>
+          <t>4646</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7568,7 +7631,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7620,7 +7683,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7672,7 +7735,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7724,7 +7787,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4663</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7776,7 +7839,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7828,7 +7891,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4732</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7867,7 +7930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7889,7 +7952,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -7926,7 +7989,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3423</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7952,6 +8015,545 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>0/8</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25.97%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19.58%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.98%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6.10%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.36%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.56%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8.55%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3637.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3637.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3637.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3637.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1909,6 +1908,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -3256,6 +3256,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -8021,543 +8022,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25.97%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.04%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.90%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.87%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4435</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4436</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4594</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>19.58%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>38.98%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.10%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4644</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>28.36%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4645</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13.00%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4646</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>66.67%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.56%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4732</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8.55%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3637.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3637.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1908,7 +1909,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>23/06/2012</t>
@@ -3256,7 +3256,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>26/01/2015</t>
@@ -8022,4 +8021,3677 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.01%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2924</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.65%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2926</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2930</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8.84%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2933</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2938</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3339</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3344</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.18%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3347</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4.41%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2.78%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3371</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>14.72%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3377</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.23%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14.93%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3384</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.50%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3386</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.98%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3389</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>50.78%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3392</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>36.90%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3393</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.78%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3398</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>8.44%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3402</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16.82%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3404</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3405</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>24.56%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3416</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3417</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.79%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3418</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3423</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3426</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.07%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3439</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3441</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>9.68%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3443</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>8.40%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3462</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5.41%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3465</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.03%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3467</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4.05%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3507</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4.07%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3599</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3600</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.10%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3677</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3679</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>13.36%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3681</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.24%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3694</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3695</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3697</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>16.11%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3698</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3727</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>54.04%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>6.43%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3767</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.52%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>42.69%</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2.39%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3787</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>15.79%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3792</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3.66%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3796</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.19%</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3829</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>37.84%</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3830</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>19.34%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3831</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.32%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.61%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3886</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>34.63%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>8.38%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>3896</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>37.85%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>3923</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>3927</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>3931</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>53.27%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>3937</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>24.12%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>3940</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>3942</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>22.83%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>3945</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>31.54%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>3950</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>3967</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>31.48%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>3972</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2.61%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>3975</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>13.21%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>3977</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>36.83%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>48.51%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4032</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>33.96%</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4035</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>48.19%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4041</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>18.25%</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>14.33%</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21.90%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4108</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>12.96%</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2.80%</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>6.60%</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4125</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>6.07%</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>42.58%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4312</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1.04%</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>17.72%</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>34.85%</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>7.78%</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4329</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>18.60%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>6.58%</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>38.73%</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>4.04%</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>49.61%</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>4.93%</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>11.52%</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>4419</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>25.97%</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2.04%</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2.90%</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>4436</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>4594</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>19.58%</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>38.98%</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>6.10%</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>28.36%</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>4645</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2.56%</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>8.55%</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>